--- a/code/GSCNDataAltered.xlsx
+++ b/code/GSCNDataAltered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srisb\OneDrive\Dokumenter\Alt(Rog)\Universitet\4.Semester\Projekt4\5G-matlab\P4-Matlab-Code\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042FDAF-C100-43BF-9909-FDEA83B2C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C00C43-CE64-49A1-B72D-EF762E05AA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{39A1D9FD-A676-49FE-8287-1788DDB095EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10386A67-A03D-4D1A-8CEF-13A1567D2FE9}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,23 +1028,6 @@
         <v>9877</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <f>104</f>
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <f>9882</f>
-        <v>9882</v>
-      </c>
-      <c r="D37">
-        <f>10358</f>
-        <v>10358</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
     <sortCondition ref="C2:C37"/>

--- a/code/GSCNDataAltered.xlsx
+++ b/code/GSCNDataAltered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srisb\OneDrive\Dokumenter\Alt(Rog)\Universitet\4.Semester\Projekt4\5G-matlab\P4-Matlab-Code\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C00C43-CE64-49A1-B72D-EF762E05AA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6F225-06F4-4915-A390-433CA994B360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{39A1D9FD-A676-49FE-8287-1788DDB095EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10386A67-A03D-4D1A-8CEF-13A1567D2FE9}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,87 +945,36 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f>48</f>
-        <v>48</v>
+        <f>79</f>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32">
-        <f>7884</f>
-        <v>7884</v>
+        <f>8480</f>
+        <v>8480</v>
       </c>
       <c r="D32">
-        <f>7982</f>
-        <v>7982</v>
+        <f>8880</f>
+        <v>8880</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f>79</f>
-        <v>79</v>
+        <f>46</f>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="C33">
-        <f>8480</f>
-        <v>8480</v>
-      </c>
-      <c r="D33">
-        <f>8880</f>
-        <v>8880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <f>46</f>
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
         <f>8993</f>
         <v>8993</v>
       </c>
-      <c r="D34">
+      <c r="D33">
         <f>9530</f>
         <v>9530</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <f>96</f>
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <f>9531</f>
-        <v>9531</v>
-      </c>
-      <c r="D35">
-        <f>10363</f>
-        <v>10363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <f>102</f>
-        <v>102</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <f>9531</f>
-        <v>9531</v>
-      </c>
-      <c r="D36">
-        <f>9877</f>
-        <v>9877</v>
       </c>
     </row>
   </sheetData>
